--- a/biology/Zoologie/Baleine_à_bec_de_Longman/Baleine_à_bec_de_Longman.xlsx
+++ b/biology/Zoologie/Baleine_à_bec_de_Longman/Baleine_à_bec_de_Longman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baleine_%C3%A0_bec_de_Longman</t>
+          <t>Baleine_à_bec_de_Longman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indopacetus pacificus
 La baleine à bec de Longman ou mésoplodon de Longman (Indopacetus pacificus) a longtemps été considérée comme la baleine la plus rare. Elle n'avait jamais été vue vivante avant le 16 novembre 2013. Les uniques preuves de son existence étaient 2 crânes découverts en 1882 (au Queensland) et 1955 (en Somalie) ainsi que les restes d'une douzaine d'échouages survenus entre 1968 au Kenya et 2002 au Japon. Les observations ont conduit à penser qu'elle vit dans l'océan Indien et au sud-ouest de l'océan Pacifique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baleine_%C3%A0_bec_de_Longman</t>
+          <t>Baleine_à_bec_de_Longman</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure en moyenne 7,60 m et parfois près de 10 m. Sa masse est de 6 à 7,5 t[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure en moyenne 7,60 m et parfois près de 10 m. Sa masse est de 6 à 7,5 t.
 </t>
         </is>
       </c>
